--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2790.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2790.xlsx
@@ -354,7 +354,7 @@
         <v>2.433048253107194</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.368453293101344</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2790.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2790.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.169093017326449</v>
+        <v>1.08029043674469</v>
       </c>
       <c r="B1">
-        <v>2.433048253107194</v>
+        <v>1.445855379104614</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>2.355828762054443</v>
       </c>
       <c r="D1">
-        <v>2.368453293101344</v>
+        <v>4.56023645401001</v>
       </c>
       <c r="E1">
-        <v>1.232342968420795</v>
+        <v>1.934415459632874</v>
       </c>
     </row>
   </sheetData>
